--- a/fDocumentos/Listado de pruebas.xlsx
+++ b/fDocumentos/Listado de pruebas.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="19155" windowHeight="8505"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="3495" windowHeight="7395"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="33">
   <si>
     <t>Prueba</t>
   </si>
@@ -54,14 +54,79 @@
     <t>David Zhou</t>
   </si>
   <si>
-    <t xml:space="preserve">No permite dar de baja porque todos los campos </t>
+    <t>¿Quien diseno los componentes probados?</t>
+  </si>
+  <si>
+    <t>Juan Carlos Olvera</t>
+  </si>
+  <si>
+    <t>Carlos Machado</t>
+  </si>
+  <si>
+    <t>Verificar que los tabs del menu principal funcionen adecuadamente.</t>
+  </si>
+  <si>
+    <t>Seleccionar un cliente.</t>
+  </si>
+  <si>
+    <t>Esteban Carlos Lopez</t>
+  </si>
+  <si>
+    <t>Ninguno.</t>
+  </si>
+  <si>
+    <t>Dar de alta a un cliente con datos inválidos.</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No se podia borrar y 
+aparecia que los campos eran requeridos.
+</t>
+  </si>
+  <si>
+    <t>Cuando se pone un dato invalido no se muestra el mensaje de error.</t>
+  </si>
+  <si>
+    <t>Dar de alta a un producto o servicio con datos inválidos.</t>
+  </si>
+  <si>
+    <t>No se podia borrar y 
+aparecia que los campos eran requeridos.</t>
+  </si>
+  <si>
+    <t>No se muestra el mensaje de error personalizado, solo se muestran los mensajes por default.</t>
+  </si>
+  <si>
+    <t>Dar de alta a un estado y una ciudad.</t>
+  </si>
+  <si>
+    <t>Los datos del cliente que se agregaron se borran/</t>
+  </si>
+  <si>
+    <t>Seleccionar un estado</t>
+  </si>
+  <si>
+    <t>En lugar de aparecer correctamente el nombre del estado y ciudad aparecia "Estado ciudad object"</t>
+  </si>
+  <si>
+    <t>Si</t>
+  </si>
+  <si>
+    <t>¿Como se resolvió?</t>
+  </si>
+  <si>
+    <t>Se le agrego un metodo al modelo de tal manera 
+que regresara el nombre del estado y ciudad en vez de 
+regresar el objeto completo.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -75,13 +140,33 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -93,16 +178,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="medium">
+      <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -111,14 +196,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -422,72 +514,264 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E7"/>
+  <dimension ref="B2:H14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="48" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="63.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="40.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="46" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="50.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+      <c r="H2" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B4" s="3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="C4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+    </row>
+    <row r="6" spans="2:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="B6" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="D6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+    </row>
+    <row r="7" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B7" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="C7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B8" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="C8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B9" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+    </row>
+    <row r="10" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B10" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+      <c r="C10" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B11" s="3" t="s">
         <v>10</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B12" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B13" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+    </row>
+    <row r="14" spans="2:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="B14" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G14" s="5">
+        <v>41600</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
